--- a/Viaje Paraguay.xlsx
+++ b/Viaje Paraguay.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A07E61A-BB38-4BEC-BDF5-CCA0C8B09716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{5A07E61A-BB38-4BEC-BDF5-CCA0C8B09716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45492AC9-D971-4640-9743-EAE6E4BA956F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{24C0FD0B-086B-4C6C-95BA-BB8353322FA4}"/>
+    <workbookView xWindow="-24030" yWindow="360" windowWidth="22680" windowHeight="14730" activeTab="2" xr2:uid="{24C0FD0B-086B-4C6C-95BA-BB8353322FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Cordoba</t>
   </si>
@@ -60,13 +62,88 @@
   </si>
   <si>
     <t>Posadas Minas Wanda</t>
+  </si>
+  <si>
+    <t>Corrientes</t>
+  </si>
+  <si>
+    <t>Formosa</t>
+  </si>
+  <si>
+    <t>Cat. Lado Brasil</t>
+  </si>
+  <si>
+    <t>Cat Lado Arg.</t>
+  </si>
+  <si>
+    <t>ciudad del Este</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>sabado</t>
+  </si>
+  <si>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>martes</t>
+  </si>
+  <si>
+    <t>miercoles</t>
+  </si>
+  <si>
+    <t>jueves</t>
+  </si>
+  <si>
+    <t>viernes</t>
+  </si>
+  <si>
+    <t>antu-joyi</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>Salida PT</t>
+  </si>
+  <si>
+    <t>Llegada a COR</t>
+  </si>
+  <si>
+    <t>Salida Formosa</t>
+  </si>
+  <si>
+    <t>Cat. Lado Arg.</t>
+  </si>
+  <si>
+    <t>Llegada Foz Iguazu</t>
+  </si>
+  <si>
+    <t>Llegada COR</t>
+  </si>
+  <si>
+    <t>stell-ed</t>
+  </si>
+  <si>
+    <t>Llegada PT</t>
+  </si>
+  <si>
+    <t>Salida Parana</t>
+  </si>
+  <si>
+    <t>Llegada BUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +151,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,15 +181,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,8 +225,113 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>325471</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>153541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D80C14E-1914-708F-F06E-029D7F614FB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="1743075"/>
+          <a:ext cx="11612596" cy="8173591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278550</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>458879</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>172484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFABC41-2469-70E8-C2B0-FC9B4C26A4F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4641000" y="10315575"/>
+          <a:ext cx="11762729" cy="7240034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,11 +649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1813CE0E-DE35-4661-B5BC-38F674A3FB14}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="1"/>
@@ -577,4 +790,340 @@
     <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Documento: Personal&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3870C2-81A4-4934-8DC2-2EFE9F2B2703}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>887</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>620</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4723B16E-F9A5-4AC9-AEE6-6672FE4ECDE4}">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1051</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1509</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>SUM(C2:C8)</f>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D2:D8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Viaje Paraguay.xlsx
+++ b/Viaje Paraguay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{5A07E61A-BB38-4BEC-BDF5-CCA0C8B09716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45492AC9-D971-4640-9743-EAE6E4BA956F}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{5A07E61A-BB38-4BEC-BDF5-CCA0C8B09716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1466487A-39C7-4A9E-945A-2923C12BFEEC}"/>
   <bookViews>
-    <workbookView xWindow="-24030" yWindow="360" windowWidth="22680" windowHeight="14730" activeTab="2" xr2:uid="{24C0FD0B-086B-4C6C-95BA-BB8353322FA4}"/>
+    <workbookView xWindow="-26145" yWindow="420" windowWidth="23190" windowHeight="15060" activeTab="2" xr2:uid="{24C0FD0B-086B-4C6C-95BA-BB8353322FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -229,16 +229,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>325471</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>315946</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>153541</xdr:rowOff>
+      <xdr:rowOff>29716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -267,7 +267,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4657725" y="1743075"/>
+          <a:off x="4038600" y="1619250"/>
           <a:ext cx="11612596" cy="8173591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -328,6 +328,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4723B16E-F9A5-4AC9-AEE6-6672FE4ECDE4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>

--- a/Viaje Paraguay.xlsx
+++ b/Viaje Paraguay.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{5A07E61A-BB38-4BEC-BDF5-CCA0C8B09716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1466487A-39C7-4A9E-945A-2923C12BFEEC}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{5A07E61A-BB38-4BEC-BDF5-CCA0C8B09716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407D74FD-C6B8-42D6-8FAD-C5F39600C337}"/>
   <bookViews>
-    <workbookView xWindow="-26145" yWindow="420" windowWidth="23190" windowHeight="15060" activeTab="2" xr2:uid="{24C0FD0B-086B-4C6C-95BA-BB8353322FA4}"/>
+    <workbookView xWindow="1425" yWindow="0" windowWidth="13185" windowHeight="15060" xr2:uid="{24C0FD0B-086B-4C6C-95BA-BB8353322FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Cordoba</t>
   </si>
@@ -55,15 +56,6 @@
     <t>Foz Iguazu</t>
   </si>
   <si>
-    <t>Concepcion del Uruguay</t>
-  </si>
-  <si>
-    <t>CABA</t>
-  </si>
-  <si>
-    <t>Posadas Minas Wanda</t>
-  </si>
-  <si>
     <t>Corrientes</t>
   </si>
   <si>
@@ -137,6 +129,21 @@
   </si>
   <si>
     <t>Llegada BUE</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>Santo Tome</t>
+  </si>
+  <si>
+    <t>Federacion</t>
   </si>
 </sst>
 </file>
@@ -651,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1813CE0E-DE35-4661-B5BC-38F674A3FB14}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,127 +672,65 @@
     <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>864</v>
-      </c>
-      <c r="C2" s="1">
-        <f>B2</f>
-        <v>864</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1238</v>
-      </c>
-      <c r="C3" s="1">
-        <f>+B3-B2</f>
-        <v>374</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1548</v>
-      </c>
-      <c r="C4" s="1">
-        <f>+B4-B3</f>
-        <v>310</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1571</v>
-      </c>
-      <c r="C5" s="1">
-        <f>+B5-B4</f>
-        <v>23</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
       <c r="B6" s="1">
-        <v>1850</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:C8" si="0">+B6-B5</f>
-        <v>279</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1">
-        <v>2562</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>712</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1">
-        <v>2868</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>306</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="1">
-        <f>SUM(D2:D8)</f>
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <f>SUM(E2:E8)</f>
-        <v>5</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -797,6 +742,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21714E9-8BF1-42D0-912D-8EABDBB34191}">
+  <dimension ref="B1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <f>SUM(B2:B21)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3870C2-81A4-4934-8DC2-2EFE9F2B2703}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -813,7 +809,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>887</v>
@@ -838,11 +834,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4723B16E-F9A5-4AC9-AEE6-6672FE4ECDE4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -861,7 +857,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1051</v>
@@ -889,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -897,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -905,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -949,92 +945,92 @@
     <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
@@ -1044,86 +1040,86 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Viaje Paraguay.xlsx
+++ b/Viaje Paraguay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{5A07E61A-BB38-4BEC-BDF5-CCA0C8B09716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407D74FD-C6B8-42D6-8FAD-C5F39600C337}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{5A07E61A-BB38-4BEC-BDF5-CCA0C8B09716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C2BE7F-8CB8-4B71-9685-C8AB2D7BCA05}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="0" windowWidth="13185" windowHeight="15060" xr2:uid="{24C0FD0B-086B-4C6C-95BA-BB8353322FA4}"/>
+    <workbookView xWindow="2205" yWindow="60" windowWidth="19890" windowHeight="15060" xr2:uid="{24C0FD0B-086B-4C6C-95BA-BB8353322FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>Resistencia</t>
-  </si>
-  <si>
-    <t>Asuncion</t>
-  </si>
-  <si>
     <t>Ciudad del Este</t>
   </si>
   <si>
@@ -134,16 +128,10 @@
     <t>Casa</t>
   </si>
   <si>
-    <t>Rosario</t>
-  </si>
-  <si>
-    <t>Santa Fe</t>
-  </si>
-  <si>
-    <t>Santo Tome</t>
-  </si>
-  <si>
-    <t>Federacion</t>
+    <t>YPF</t>
+  </si>
+  <si>
+    <t>Hotel</t>
   </si>
 </sst>
 </file>
@@ -661,7 +649,7 @@
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,60 +662,60 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
-        <v>169</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
-        <v>545</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
-        <v>317</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>488</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
-        <v>408</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
         <v>478</v>
@@ -809,7 +797,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>887</v>
@@ -820,7 +808,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>620</v>
@@ -857,7 +845,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1051</v>
@@ -868,7 +856,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1509</v>
@@ -879,13 +867,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -893,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -901,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -945,181 +933,181 @@
     <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
